--- a/medicine/Soins infirmiers et profession infirmière/Haute_École_de_santé_Vaud/Haute_École_de_santé_Vaud.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Haute_École_de_santé_Vaud/Haute_École_de_santé_Vaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Haute_%C3%89cole_de_sant%C3%A9_Vaud</t>
+          <t>Haute_École_de_santé_Vaud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Haute École de santé Vaud (HESAV) est une université de sciences appliquées située à Lausanne, au cœur de la cité hospitalière du CHUV (Centre Hospitalier Universitaire Vaudois). Avec plus de 1200 étudiants, elle est le plus grand centre de formation des professions de la santé du canton de Vaud. Membre depuis 2002 du réseau des hautes écoles spécialisées de Suisse occidentale (HES-SO), HESAV compte près de 250 collaboratrices et collaborateurs ainsi que 600 intervenants externes.
 HESAV a pour missions de former les professionnels de la santé et d’assurer une relève de qualité dans quatre filières Bachelor : Soins infirmiers, Physiothérapie, Technique en radiologie médicale et Sage-femme.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Haute_%C3%89cole_de_sant%C3%A9_Vaud</t>
+          <t>Haute_École_de_santé_Vaud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Créée le 1er octobre 2002 pour répondre aux exigences de la loi fédérale sur les Hautes écoles spécialisées, HESAV est née de la fusion de quatre écoles cantonales : l'école d'infirmiers (fondée en 1932, initialement l'école de gardes-malades), l'école des sages-femmes de Chantepierre (fondée en 1803), l'école cantonale vaudoise de physiothérapeutes (1936, anciennement l'école de massage) et l'école cantonale vaudoise de technicien en radiologie médicale (1987).
 </t>
